--- a/data/shared/names_labels_correction.xlsx
+++ b/data/shared/names_labels_correction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8556"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8556" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="alsa" sheetId="6" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="327">
   <si>
     <t>name</t>
   </si>
@@ -1069,6 +1069,9 @@
   </si>
   <si>
     <t>"-1" for NA?</t>
+  </si>
+  <si>
+    <t>marital4</t>
   </si>
 </sst>
 </file>
@@ -1408,12 +1411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1470,7 +1472,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1504,7 +1506,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1532,7 +1534,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1560,7 +1562,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1588,7 +1590,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1830,7 +1832,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1860,11 +1862,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G25">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="demo"/>
-      </filters>
-    </filterColumn>
+    <sortState ref="A2:G25">
+      <sortCondition ref="A1:A25"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1872,7 +1872,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1884,7 +1883,7 @@
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2049,7 +2048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2316,20 +2315,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G26">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="demo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2341,7 +2333,7 @@
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2434,7 +2426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2448,7 +2440,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2462,7 +2454,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2476,7 +2468,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2490,7 +2482,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2504,7 +2496,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2518,7 +2510,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2532,7 +2524,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2546,7 +2538,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2560,7 +2552,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2574,7 +2566,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2588,7 +2580,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2602,7 +2594,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2616,7 +2608,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2630,7 +2622,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2644,7 +2636,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2658,7 +2650,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2672,7 +2664,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2686,7 +2678,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2700,7 +2692,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2807,13 +2799,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G28">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="demo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2821,7 +2807,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2833,7 +2818,7 @@
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2995,7 +2980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3009,7 +2994,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3023,7 +3008,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3037,7 +3022,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3051,7 +3036,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3065,7 +3050,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3079,7 +3064,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3093,7 +3078,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3107,7 +3092,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3121,7 +3106,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3135,7 +3120,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3149,7 +3134,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3163,7 +3148,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3177,7 +3162,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3191,7 +3176,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3206,23 +3191,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="demo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
@@ -3230,8 +3208,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="7" width="13.5546875" customWidth="1"/>
   </cols>
@@ -3427,8 +3405,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>42433</v>
+      <c r="B9" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="C9" t="s">
         <v>200</v>
@@ -3613,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3627,7 +3605,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3641,7 +3619,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3655,7 +3633,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3669,7 +3647,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3683,7 +3661,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3697,7 +3675,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3711,7 +3689,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3725,7 +3703,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3739,7 +3717,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3753,7 +3731,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3767,7 +3745,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3781,7 +3759,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3795,7 +3773,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3809,7 +3787,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3823,7 +3801,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3837,7 +3815,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3851,7 +3829,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3865,7 +3843,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3879,7 +3857,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3893,7 +3871,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3907,7 +3885,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3921,7 +3899,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3935,7 +3913,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3949,7 +3927,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3963,7 +3941,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3977,7 +3955,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3991,7 +3969,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4005,7 +3983,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4019,7 +3997,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4033,7 +4011,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4047,7 +4025,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4061,7 +4039,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4075,7 +4053,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4089,7 +4067,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4104,13 +4082,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H51">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="demo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H51"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
